--- a/docs/source/_files/template/SELF_INFO_TEMPLATE.xlsx
+++ b/docs/source/_files/template/SELF_INFO_TEMPLATE.xlsx
@@ -691,14 +691,14 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>self_info</t>
+          <t>SELF_INFO</t>
         </is>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_ORG</t>
+          <t>RA</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr"/>
@@ -706,7 +706,7 @@
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_PERSON</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr"/>
